--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\MSTARSUI\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B480DA-49DA-436F-98AF-30DC14146730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1103D95-697B-4A88-8AD7-EC74F61D79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/UserAgencySelection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1103D95-697B-4A88-8AD7-EC74F61D79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C49351-6CC0-45B2-8F43-5CB4B7FB91C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Proceed</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J01 TEST3                                          </t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>getData=AgencyClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - J02                                          </t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -526,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91945AB-33E2-460F-AED5-3F0527A961E2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
